--- a/data/trans_camb/P16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 0,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 4,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>372,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,97%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 0,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 1,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,58</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>351,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>247,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -1027,22 +1027,22 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-71,25; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,07; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1069,42 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-86,73; 264,58</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,5; 258,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,09; 181,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,71; 99,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,6; 167,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,69; 57,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,29; 122,79</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 2,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; -0,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 0,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; -0,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 0,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 1,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,48%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,53; 128,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 165,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,95; 201,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,09; -10,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,29; 37,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,48; 0,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,51; 8,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 55,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,23; 47,73</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 1,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 3,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 0,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -0,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 0,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 1,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 0,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; -0,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,84; 17,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,75; 40,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,04; 4,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,25; 76,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,66; -3,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,65; 22,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,7; 15,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; 11,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,26; -1,13</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 3,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,99; 3,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; -1,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 1,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 4,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,66; -0,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 1,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 2,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,24; -1,39</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,98%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,16; 18,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; 17,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,85; -5,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,34; 10,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,86; 29,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,5; -0,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,48; 7,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,72; 15,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,68; -8,08</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 1,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 0,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,95</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,4; 20,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 33,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 29,82</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,38; 11,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 24,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 18,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 9,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 22,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; 19,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,21</t>
+          <t>-0,4; 3,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,25</t>
+          <t>-0,28; 1,74</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>372,03%</t>
+          <t>325,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>150,97%</t>
+          <t>105,03%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,14 +873,14 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,5</t>
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,28</t>
+          <t>-0,42; 1,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,58</t>
+          <t>-0,26; 0,65</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>29,99%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,11</t>
+          <t>-0,9; 1,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,39</t>
+          <t>-1,61; 0,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,5</t>
+          <t>-0,93; 0,56</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,54%</t>
+          <t>-37,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>-24,57%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,71; 99,11</t>
+          <t>-82,85; 110,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 122,79</t>
+          <t>-73,29; 126,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,64</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,28</t>
+          <t>-2,51; 2,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -0,12</t>
+          <t>-3,87; -0,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,02</t>
+          <t>-2,24; 0,78</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,76%</t>
+          <t>-56,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-21,89%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 201,85</t>
+          <t>-61,56; 137,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,48; 0,94</t>
+          <t>-79,15; 0,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 47,73</t>
+          <t>-57,55; 34,71</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-2,56</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,15</t>
+          <t>-7,28; 0,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,79</t>
+          <t>-4,54; 0,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,1</t>
+          <t>-4,81; -0,04</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-32,69%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>-27,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-30,37%</t>
+          <t>-30,0%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 4,89</t>
+          <t>-52,68; 5,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 22,68</t>
+          <t>-55,08; 21,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,26; -1,13</t>
+          <t>-48,71; -0,61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-7,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,95</t>
+          <t>-8,09; 3,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 3,61</t>
+          <t>-3,9; 8,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -1,07</t>
+          <t>-9,96; 0,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,82</t>
+          <t>-9,18; 0,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,78</t>
+          <t>-6,62; 3,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,02</t>
+          <t>-16,17; -5,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,41</t>
+          <t>-7,46; 0,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,94</t>
+          <t>-3,88; 4,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,39</t>
+          <t>-13,56; -4,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>-14,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-26,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-30,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>-64,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-22,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-49,27%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 18,86</t>
+          <t>-40,55; 25,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 17,96</t>
+          <t>-18,58; 57,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,85; -5,35</t>
+          <t>-47,72; 1,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 10,86</t>
+          <t>-53,22; 4,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 29,03</t>
+          <t>-37,79; 28,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -0,27</t>
+          <t>-87,65; -41,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 7,4</t>
+          <t>-40,83; 0,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 15,53</t>
+          <t>-21,32; 28,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,68; -8,08</t>
+          <t>-73,95; -30,26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,0</t>
+          <t>-8,91; 8,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,66</t>
+          <t>-14,26; 0,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,45</t>
+          <t>-13,81; 1,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,55</t>
+          <t>-6,6; 6,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,2</t>
+          <t>-4,93; 9,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,9</t>
+          <t>-3,58; 7,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,49</t>
+          <t>-5,11; 4,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,16</t>
+          <t>-6,68; 4,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,95</t>
+          <t>-5,53; 2,99</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>-21,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>-21,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>-5,48%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-26,08; 34,19</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-40,86; 3,26</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-39,83; 4,1</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; 36,42</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-18,21; 48,47</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 41,54</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; 21,28</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 18,55</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-19,37; 12,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 1,66</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 1,07</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 0,55</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,2</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 0,61</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 0,49</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,16</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-21,4; 20,51</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-10,59; 33,57</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 29,82</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-23,51; 21,42</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-27,38; 11,94</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-18,71; 24,56</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-19,65; 18,62</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 12,29</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-17,56; 9,7</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-7,41; 22,92</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 19,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 11,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,7</t>
+          <t>-0,33; 0,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,0</t>
+          <t>-1,02; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,0</t>
+          <t>-0,91; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,93</t>
+          <t>-0,41; 0,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,82</t>
+          <t>-0,4; 0,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,73</t>
+          <t>-0,4; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,52</t>
+          <t>-0,31; 0,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,3</t>
+          <t>-0,39; 0,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,74</t>
+          <t>-0,28; 1,68</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,52</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,39</t>
+          <t>-0,13; 1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,3</t>
+          <t>-0,73; 0,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,75</t>
+          <t>-0,07; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,59</t>
+          <t>-0,39; 1,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,74</t>
+          <t>-0,2; 0,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,14</t>
+          <t>0,05; 1,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,65</t>
+          <t>-0,27; 0,69</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,25; —</t>
+          <t>-65,86; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,07; —</t>
+          <t>-37,0; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,87</t>
+          <t>-1,02; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,28</t>
+          <t>-1,3; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,13</t>
+          <t>-0,95; 1,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,55</t>
+          <t>-0,92; 1,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,73</t>
+          <t>-1,34; 0,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,45</t>
+          <t>-1,53; 0,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,94</t>
+          <t>-0,61; 0,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,27</t>
+          <t>-1,03; 0,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,56</t>
+          <t>-0,94; 0,52</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 264,58</t>
+          <t>-79,32; 300,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 267,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 461,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 258,4</t>
+          <t>-64,04; 239,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,09; 181,47</t>
+          <t>-79,26; 165,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 110,71</t>
+          <t>-85,34; 115,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 167,25</t>
+          <t>-49,34; 165,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,69; 57,42</t>
+          <t>-77,21; 73,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 126,04</t>
+          <t>-73,23; 92,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,77</t>
+          <t>-2,01; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,51</t>
+          <t>-1,42; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,52</t>
+          <t>-2,27; 2,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,38</t>
+          <t>-4,52; -0,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,73</t>
+          <t>-3,24; 0,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,17</t>
+          <t>-3,95; -0,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,11</t>
+          <t>-2,5; 0,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,16</t>
+          <t>-1,69; 1,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,78</t>
+          <t>-2,21; 0,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 128,91</t>
+          <t>-60,42; 119,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 165,46</t>
+          <t>-41,35; 172,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,56; 137,19</t>
+          <t>-54,95; 140,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,09; -10,81</t>
+          <t>-87,26; -13,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 37,63</t>
+          <t>-71,23; 45,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,15; 0,36</t>
+          <t>-80,31; -13,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 8,86</t>
+          <t>-68,14; 12,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 55,3</t>
+          <t>-45,45; 49,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 34,71</t>
+          <t>-59,39; 28,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1,32</t>
+          <t>-6,22; 1,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,5</t>
+          <t>-4,64; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,13</t>
+          <t>-7,47; -0,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,08</t>
+          <t>-3,34; 3,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,3</t>
+          <t>-6,18; -0,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 0,78</t>
+          <t>-4,43; 0,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,08</t>
+          <t>-3,94; 1,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,77</t>
+          <t>-4,33; 0,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,04</t>
+          <t>-5,04; -0,29</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 17,56</t>
+          <t>-48,48; 16,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 40,03</t>
+          <t>-35,82; 40,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 5,77</t>
+          <t>-55,46; -0,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 76,35</t>
+          <t>-42,63; 70,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,66; -3,51</t>
+          <t>-77,19; -5,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 21,8</t>
+          <t>-53,78; 17,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 15,73</t>
+          <t>-39,8; 20,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 11,7</t>
+          <t>-44,83; 12,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,71; -0,61</t>
+          <t>-48,62; -3,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 3,75</t>
+          <t>-8,83; 3,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 8,28</t>
+          <t>-4,16; 8,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 0,23</t>
+          <t>-10,35; 0,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 0,67</t>
+          <t>-9,51; 0,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 3,38</t>
+          <t>-6,14; 4,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -5,33</t>
+          <t>-16,29; -5,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,03</t>
+          <t>-7,52; 0,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,05</t>
+          <t>-3,73; 4,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -4,33</t>
+          <t>-13,2; -4,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 25,52</t>
+          <t>-42,19; 25,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 57,49</t>
+          <t>-19,79; 59,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 1,98</t>
+          <t>-46,86; 3,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 4,91</t>
+          <t>-53,7; 6,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 28,77</t>
+          <t>-35,24; 37,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,65; -41,39</t>
+          <t>-86,49; -40,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 0,93</t>
+          <t>-40,26; 4,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 28,16</t>
+          <t>-19,75; 29,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,95; -30,26</t>
+          <t>-75,48; -31,96</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 8,52</t>
+          <t>-9,48; 8,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 0,91</t>
+          <t>-14,41; 0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 1,01</t>
+          <t>-13,95; 0,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 6,9</t>
+          <t>-6,79; 6,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 9,13</t>
+          <t>-4,35; 8,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 7,64</t>
+          <t>-3,81; 7,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,91</t>
+          <t>-5,86; 4,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,09</t>
+          <t>-6,68; 3,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,99</t>
+          <t>-6,03; 2,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 34,19</t>
+          <t>-27,01; 32,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 3,26</t>
+          <t>-40,01; 3,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 4,1</t>
+          <t>-39,26; 2,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 36,42</t>
+          <t>-26,03; 33,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 48,47</t>
+          <t>-16,52; 47,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 41,54</t>
+          <t>-14,71; 39,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 21,28</t>
+          <t>-20,35; 20,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 18,55</t>
+          <t>-23,7; 16,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 12,82</t>
+          <t>-21,13; 11,89</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,0</t>
+          <t>-1,2; 1,01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,66</t>
+          <t>-0,57; 1,62</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,07</t>
+          <t>-1,42; 1,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,55</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,2</t>
+          <t>-1,06; 1,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,61</t>
+          <t>-1,71; 0,57</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,49</t>
+          <t>-1,08; 0,46</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,16</t>
+          <t>-0,44; 1,16</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,58</t>
+          <t>-1,09; 0,59</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 20,51</t>
+          <t>-20,75; 21,11</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 33,57</t>
+          <t>-8,99; 34,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 21,42</t>
+          <t>-24,63; 21,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 11,94</t>
+          <t>-26,84; 11,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 24,56</t>
+          <t>-18,37; 23,83</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 12,29</t>
+          <t>-28,83; 11,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,7</t>
+          <t>-18,91; 9,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 22,92</t>
+          <t>-7,72; 23,62</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 11,72</t>
+          <t>-18,75; 11,46</t>
         </is>
       </c>
     </row>
